--- a/phpprog/cloud/residenza ranitaria (RSA)/schema 07-I.xlsx
+++ b/phpprog/cloud/residenza ranitaria (RSA)/schema 07-I.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\cloud\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D777A-C41E-44B9-9BD1-EE3C19A2B133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A172151-A083-40AA-91BC-75A9D0302BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5C6923-E625-4743-BEC2-406AC1F17BD4}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
@@ -439,11 +439,8 @@
         <f>B2/100</f>
         <v>174</v>
       </c>
-      <c r="D2">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18</v>
       </c>
@@ -455,7 +452,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -468,7 +465,7 @@
         <v>509.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -480,7 +477,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -492,7 +489,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>28</v>
       </c>
@@ -504,7 +501,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -516,7 +513,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -528,7 +525,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>40</v>
       </c>
@@ -540,7 +537,7 @@
         <v>254.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>42</v>
       </c>
@@ -552,7 +549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>54</v>
       </c>
@@ -564,7 +561,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>76.099999999999994</v>
       </c>
